--- a/Podocytes_2_12.xlsx
+++ b/Podocytes_2_12.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dab8f2bcde4f6ab6/Documents/SBP Updates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ginny Wu\Documents\GitHub\SBP-imaging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{879B699E-7515-4BF3-99E0-631B9BF80C6D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" xr2:uid="{4213AF25-5406-42F3-B813-91CF1FD2653F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="9465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -333,7 +332,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -678,14 +677,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8957CC-F83E-4334-B5A5-AD33D1E1092C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.06640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.73046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="39.06640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.1328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.59765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.73046875" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="41.86328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="34" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="38.86328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="38.46484375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="37.86328125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="39" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="38.59765625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="38" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="30.86328125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="41.796875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="28.1328125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="7.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
